--- a/doc/設計書・定義書/03_ファイル構成一覧表_Panban_0610pm_2.xlsx
+++ b/doc/設計書・定義書/03_ファイル構成一覧表_Panban_0610pm_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\test\D1\doc\設計書・定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B8B525-C1D3-41A3-A961-0E14C6423E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEC73E9-1AA0-40C5-9F28-6CF3DC7953C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>ステータス</t>
     <phoneticPr fontId="1"/>
@@ -214,21 +214,12 @@
     <t>StudentQueServlet.java</t>
   </si>
   <si>
-    <t>質問に関する項目選択の初期画面。教科および匿名質問の選択処理、自分の質問数、質問回答数表示用。</t>
-  </si>
-  <si>
     <t>StudentQueSubServlet.java</t>
   </si>
   <si>
     <t>質問（各教科）画面初期表示。質問回答送信処理用。</t>
   </si>
   <si>
-    <t>TeacherQueServlet.java</t>
-  </si>
-  <si>
-    <t>質問（匿名）画面初期表示。匿名質問回答送信処理用。</t>
-  </si>
-  <si>
     <t>StudentQueHisServlet.java</t>
   </si>
   <si>
@@ -248,6 +239,10 @@
   </si>
   <si>
     <t>User.java</t>
+  </si>
+  <si>
+    <t>質問に関する項目選択の初期画面。教科の選択処理、自分の質問数、質問回答数表示用。</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -698,7 +693,7 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -912,7 +907,7 @@
         <v>29</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -934,10 +929,10 @@
         <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -947,7 +942,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -959,10 +954,10 @@
         <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -972,7 +967,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" ht="36" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C11" s="10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -981,7 +976,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>35</v>
@@ -1011,9 +1006,7 @@
       <c r="F12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="G12" s="7"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1027,15 +1020,9 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1466,20 +1453,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="87cf0ee8-fe20-4b5a-8adf-0a4439756175" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="87cf0ee8-fe20-4b5a-8adf-0a4439756175" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1639,19 +1626,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/設計書・定義書/03_ファイル構成一覧表_Panban_0610pm_2.xlsx
+++ b/doc/設計書・定義書/03_ファイル構成一覧表_Panban_0610pm_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\test\D1\doc\設計書・定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D1\doc\設計書・定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEC73E9-1AA0-40C5-9F28-6CF3DC7953C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555B4DA5-4B98-41E6-BA1A-80A4103248B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$29</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="94">
   <si>
     <t>ステータス</t>
     <phoneticPr fontId="1"/>
@@ -220,28 +220,347 @@
     <t>質問（各教科）画面初期表示。質問回答送信処理用。</t>
   </si>
   <si>
+    <t>dao</t>
+  </si>
+  <si>
+    <t>UserDao.java</t>
+  </si>
+  <si>
+    <t>userテーブルアクセス用DAO。</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>User.java</t>
+  </si>
+  <si>
+    <t>質問に関する項目選択の初期画面。教科の選択処理、自分の質問数、質問回答数表示用。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>servlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>StudentQueHisServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StudentQueSubResultServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dao</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gradeDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QuestionDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>grade.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Login.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Question.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Result.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Home.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Login.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>modal_input.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StudentQue.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム画面のデザイン。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面のデザイン。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生徒の質問画面のデザイン。</t>
+    <rPh sb="0" eb="2">
+      <t>セイト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーダルウインドウのデザイン。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Home.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Login.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NewLogin.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Result.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScoreConvert.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StudentQue.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScoreRegist.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StudentQueHis.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StudentQueSub.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StudentQueSubResult.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>script</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Line_Chart.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StudentQue.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Questionテーブル登録用DAO。</t>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gradeテーブル成績登録用DAO</t>
+    <rPh sb="9" eb="11">
+      <t>セイセキ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>トウロクヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>usersテーブルのデータ保持用クラス。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gradeテーブルのデータ保持用クラス。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Loginテーブルのデータ保持用クラス。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Questionテーブルのデータ保持用クラス。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Resultテーブルのデータ保持用クラス。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成績のグラフを出力するjs</t>
+    <rPh sb="0" eb="2">
+      <t>セイセキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム画面用jsp</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面用jsp</t>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規ログイン画面用jsp</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問画面用jsp</t>
+    <rPh sb="0" eb="4">
+      <t>シツモンガメン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成績換算画面用jsp</t>
+    <rPh sb="0" eb="2">
+      <t>セイセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンサン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成績登録画面用jsp</t>
+    <rPh sb="0" eb="4">
+      <t>セイセキトウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浅井、林</t>
+    <rPh sb="0" eb="2">
+      <t>アサイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハヤシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問への回答画面用jsp</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問内容画面用jsp</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ナイヨウガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問用js</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分の回答した質問履歴画面用jsp</t>
   </si>
   <si>
     <t>質問（自分が回答したもの一覧）画面初期表示、質問履歴、質問回答数処理用</t>
-  </si>
-  <si>
-    <t>dao</t>
-  </si>
-  <si>
-    <t>UserDao.java</t>
-  </si>
-  <si>
-    <t>userテーブルアクセス用DAO。</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>User.java</t>
-  </si>
-  <si>
-    <t>質問に関する項目選択の初期画面。教科の選択処理、自分の質問数、質問回答数表示用。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -249,7 +568,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,8 +593,19 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -337,12 +667,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -353,9 +686,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -376,8 +706,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -690,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -702,7 +1045,7 @@
     <col min="4" max="4" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.09765625" customWidth="1"/>
-    <col min="7" max="7" width="50.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.3984375" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="13" customWidth="1"/>
     <col min="14" max="14" width="16.09765625" customWidth="1"/>
@@ -712,7 +1055,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C2" s="2" t="s">
@@ -727,7 +1070,7 @@
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -769,23 +1112,31 @@
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="H3" s="12">
+        <v>45460</v>
+      </c>
+      <c r="I3" s="12">
+        <v>45464</v>
+      </c>
+      <c r="J3" s="12">
+        <v>45460</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="N3" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C37" si="0">ROW()-2</f>
+        <f t="shared" ref="C4:C40" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -797,12 +1148,18 @@
       <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="H4" s="12">
+        <v>45461</v>
+      </c>
+      <c r="I4" s="12">
+        <v>45464</v>
+      </c>
+      <c r="J4" s="12">
+        <v>45461</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -825,16 +1182,24 @@
       <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="H5" s="12">
+        <v>45462</v>
+      </c>
+      <c r="I5" s="12">
+        <v>45464</v>
+      </c>
+      <c r="J5" s="12">
+        <v>45462</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="N5" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -853,12 +1218,18 @@
       <c r="F6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="H6" s="12">
+        <v>45463</v>
+      </c>
+      <c r="I6" s="12">
+        <v>45464</v>
+      </c>
+      <c r="J6" s="12">
+        <v>45463</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -878,15 +1249,21 @@
       <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="H7" s="12">
+        <v>45464</v>
+      </c>
+      <c r="I7" s="12">
+        <v>45464</v>
+      </c>
+      <c r="J7" s="12">
+        <v>45464</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -906,12 +1283,18 @@
       <c r="F8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="G8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="12">
+        <v>45464</v>
+      </c>
+      <c r="I8" s="12">
+        <v>45464</v>
+      </c>
+      <c r="J8" s="12">
+        <v>45464</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -931,12 +1314,18 @@
       <c r="F9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="H9" s="12">
+        <v>45464</v>
+      </c>
+      <c r="I9" s="12">
+        <v>45464</v>
+      </c>
+      <c r="J9" s="12">
+        <v>45464</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -954,62 +1343,78 @@
         <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="12">
+        <v>45467</v>
+      </c>
+      <c r="I10" s="12">
+        <v>45464</v>
+      </c>
+      <c r="J10" s="12">
+        <v>45467</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C11" s="10">
-        <f t="shared" si="0"/>
+      <c r="C11" s="1">
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="12">
+        <v>45468</v>
+      </c>
+      <c r="I11" s="12">
+        <v>45464</v>
+      </c>
+      <c r="J11" s="12">
+        <v>45468</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C12" s="10">
-        <f t="shared" si="0"/>
+      <c r="C12" s="1">
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="12">
+        <v>45463</v>
+      </c>
+      <c r="I12" s="12">
+        <v>45464</v>
+      </c>
+      <c r="J12" s="13">
+        <v>45463</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -1017,50 +1422,91 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C13" s="1">
-        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="12">
+        <v>45464</v>
+      </c>
+      <c r="I13" s="12">
+        <v>45464</v>
+      </c>
+      <c r="J13" s="13">
+        <v>45464</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C14" s="1">
+      <c r="C14" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="12">
+        <v>45460</v>
+      </c>
+      <c r="I14" s="12">
+        <v>45464</v>
+      </c>
+      <c r="J14" s="13">
+        <v>45460</v>
+      </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C15" s="1">
+      <c r="C15" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="12">
+        <v>45460</v>
+      </c>
+      <c r="I15" s="12">
+        <v>45464</v>
+      </c>
+      <c r="J15" s="13">
+        <v>45460</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1071,13 +1517,27 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="12">
+        <v>45463</v>
+      </c>
+      <c r="I16" s="12">
+        <v>45464</v>
+      </c>
+      <c r="J16" s="13">
+        <v>45463</v>
+      </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -1088,13 +1548,27 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="12">
+        <v>45460</v>
+      </c>
+      <c r="I17" s="12">
+        <v>45464</v>
+      </c>
+      <c r="J17" s="13">
+        <v>45460</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1105,13 +1579,27 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="12">
+        <v>45464</v>
+      </c>
+      <c r="I18" s="12">
+        <v>45464</v>
+      </c>
+      <c r="J18" s="13">
+        <v>45464</v>
+      </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1122,13 +1610,27 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="12">
+        <v>45463</v>
+      </c>
+      <c r="I19" s="12">
+        <v>45464</v>
+      </c>
+      <c r="J19" s="12">
+        <v>45463</v>
+      </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1139,13 +1641,27 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="12">
+        <v>45464</v>
+      </c>
+      <c r="I20" s="12">
+        <v>45464</v>
+      </c>
+      <c r="J20" s="13">
+        <v>45464</v>
+      </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -1156,13 +1672,27 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="12">
+        <v>45464</v>
+      </c>
+      <c r="I21" s="12">
+        <v>45464</v>
+      </c>
+      <c r="J21" s="13">
+        <v>45465</v>
+      </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -1173,13 +1703,27 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="12">
+        <v>45464</v>
+      </c>
+      <c r="I22" s="12">
+        <v>45464</v>
+      </c>
+      <c r="J22" s="13">
+        <v>45466</v>
+      </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -1190,13 +1734,27 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="12">
+        <v>45464</v>
+      </c>
+      <c r="I23" s="12">
+        <v>45464</v>
+      </c>
+      <c r="J23" s="13">
+        <v>45467</v>
+      </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -1207,13 +1765,27 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" s="12">
+        <v>45453</v>
+      </c>
+      <c r="I24" s="12">
+        <v>45464</v>
+      </c>
+      <c r="J24" s="13">
+        <v>45453</v>
+      </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -1224,13 +1796,27 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" s="12">
+        <v>45453</v>
+      </c>
+      <c r="I25" s="12">
+        <v>45464</v>
+      </c>
+      <c r="J25" s="13">
+        <v>45453</v>
+      </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -1241,13 +1827,27 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" s="12">
+        <v>45453</v>
+      </c>
+      <c r="I26" s="12">
+        <v>45464</v>
+      </c>
+      <c r="J26" s="13">
+        <v>45453</v>
+      </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -1258,13 +1858,25 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="12">
+        <v>45453</v>
+      </c>
+      <c r="I27" s="12">
+        <v>45464</v>
+      </c>
+      <c r="J27" s="13">
+        <v>45453</v>
+      </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -1275,13 +1887,27 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" s="12">
+        <v>45453</v>
+      </c>
+      <c r="I28" s="12">
+        <v>45464</v>
+      </c>
+      <c r="J28" s="13">
+        <v>45453</v>
+      </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -1292,13 +1918,27 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" s="12">
+        <v>45453</v>
+      </c>
+      <c r="I29" s="12">
+        <v>45464</v>
+      </c>
+      <c r="J29" s="13">
+        <v>45453</v>
+      </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -1309,13 +1949,27 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" s="12">
+        <v>45453</v>
+      </c>
+      <c r="I30" s="12">
+        <v>45464</v>
+      </c>
+      <c r="J30" s="13">
+        <v>45453</v>
+      </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -1326,13 +1980,27 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H31" s="12">
+        <v>45453</v>
+      </c>
+      <c r="I31" s="12">
+        <v>45464</v>
+      </c>
+      <c r="J31" s="13">
+        <v>45453</v>
+      </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -1343,13 +2011,27 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H32" s="12">
+        <v>45453</v>
+      </c>
+      <c r="I32" s="12">
+        <v>45464</v>
+      </c>
+      <c r="J32" s="13">
+        <v>45453</v>
+      </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -1360,13 +2042,27 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H33" s="12">
+        <v>45453</v>
+      </c>
+      <c r="I33" s="12">
+        <v>45464</v>
+      </c>
+      <c r="J33" s="13">
+        <v>45453</v>
+      </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -1377,13 +2073,27 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H34" s="12">
+        <v>45453</v>
+      </c>
+      <c r="I34" s="12">
+        <v>45464</v>
+      </c>
+      <c r="J34" s="13">
+        <v>45453</v>
+      </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -1394,13 +2104,27 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" s="12">
+        <v>45453</v>
+      </c>
+      <c r="I35" s="12">
+        <v>45464</v>
+      </c>
+      <c r="J35" s="13">
+        <v>45453</v>
+      </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -1414,7 +2138,7 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="7"/>
+      <c r="G36" s="6"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -1431,7 +2155,7 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="7"/>
+      <c r="G37" s="6"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -1440,14 +2164,69 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C38" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C39" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C40" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C2:N26" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
+  <autoFilter ref="C2:N29" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M37" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M40" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
       <formula1>$A$2:$A$7</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F20" r:id="rId1" xr:uid="{AED34236-76F8-4C4D-991A-ABFE80132E8F}"/>
+    <hyperlink ref="F24" r:id="rId2" xr:uid="{E011FEBF-22E1-40FB-82E6-922801E81208}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/doc/設計書・定義書/03_ファイル構成一覧表_Panban_0610pm_2.xlsx
+++ b/doc/設計書・定義書/03_ファイル構成一覧表_Panban_0610pm_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D1\doc\設計書・定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555B4DA5-4B98-41E6-BA1A-80A4103248B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFC1F6D-7601-4D82-96A8-5EB241EFEB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="94">
   <si>
     <t>ステータス</t>
     <phoneticPr fontId="1"/>
@@ -163,9 +163,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NewLoginServlet</t>
-  </si>
-  <si>
     <t>新規アカウント登録画面初期表示、登録処理用。</t>
   </si>
   <si>
@@ -561,6 +558,10 @@
   </si>
   <si>
     <t>質問（自分が回答したもの一覧）画面初期表示、質問履歴、質問回答数処理用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NewLoginServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1035,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1128,7 +1129,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
@@ -1136,7 +1137,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C40" si="0">ROW()-2</f>
+        <f>ROW()-2</f>
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1146,10 +1147,10 @@
         <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="H4" s="12">
         <v>45461</v>
@@ -1163,14 +1164,16 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="N4" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="5" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C5:C40" si="0">ROW()-2</f>
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1180,10 +1183,10 @@
         <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="H5" s="12">
         <v>45462</v>
@@ -1198,12 +1201,12 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
@@ -1216,10 +1219,10 @@
         <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="H6" s="12">
         <v>45463</v>
@@ -1237,7 +1240,7 @@
     </row>
     <row r="7" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
@@ -1250,10 +1253,10 @@
         <v>14</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="H7" s="12">
         <v>45464</v>
@@ -1281,10 +1284,10 @@
         <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" s="12">
         <v>45464</v>
@@ -1312,10 +1315,10 @@
         <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="H9" s="12">
         <v>45464</v>
@@ -1343,10 +1346,10 @@
         <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H10" s="12">
         <v>45467</v>
@@ -1367,13 +1370,13 @@
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="12">
@@ -1395,16 +1398,16 @@
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="G12" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H12" s="12">
         <v>45463</v>
@@ -1425,16 +1428,16 @@
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H13" s="12">
         <v>45464</v>
@@ -1459,13 +1462,13 @@
         <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="H14" s="12">
         <v>45460</v>
@@ -1490,13 +1493,13 @@
         <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H15" s="12">
         <v>45460</v>
@@ -1521,13 +1524,13 @@
         <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H16" s="12">
         <v>45463</v>
@@ -1552,13 +1555,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H17" s="12">
         <v>45460</v>
@@ -1583,13 +1586,13 @@
         <v>13</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H18" s="12">
         <v>45464</v>
@@ -1614,13 +1617,13 @@
         <v>13</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H19" s="12">
         <v>45463</v>
@@ -1642,16 +1645,16 @@
         <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>51</v>
-      </c>
       <c r="G20" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H20" s="12">
         <v>45464</v>
@@ -1673,16 +1676,16 @@
         <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H21" s="12">
         <v>45464</v>
@@ -1704,16 +1707,16 @@
         <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H22" s="12">
         <v>45464</v>
@@ -1735,16 +1738,16 @@
         <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H23" s="12">
         <v>45464</v>
@@ -1766,16 +1769,16 @@
         <v>22</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>60</v>
-      </c>
       <c r="G24" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H24" s="12">
         <v>45453</v>
@@ -1797,16 +1800,16 @@
         <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H25" s="12">
         <v>45453</v>
@@ -1828,16 +1831,16 @@
         <v>24</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H26" s="12">
         <v>45453</v>
@@ -1859,13 +1862,13 @@
         <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="12">
@@ -1888,16 +1891,16 @@
         <v>26</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H28" s="12">
         <v>45453</v>
@@ -1919,16 +1922,16 @@
         <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H29" s="12">
         <v>45453</v>
@@ -1950,16 +1953,16 @@
         <v>28</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H30" s="12">
         <v>45453</v>
@@ -1981,16 +1984,16 @@
         <v>29</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H31" s="12">
         <v>45453</v>
@@ -2012,16 +2015,16 @@
         <v>30</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H32" s="12">
         <v>45453</v>
@@ -2043,16 +2046,16 @@
         <v>31</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H33" s="12">
         <v>45453</v>
@@ -2074,16 +2077,16 @@
         <v>32</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="G34" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="12">
         <v>45453</v>
@@ -2105,16 +2108,16 @@
         <v>33</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F35" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H35" s="12">
         <v>45453</v>
@@ -2232,20 +2235,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="87cf0ee8-fe20-4b5a-8adf-0a4439756175" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="87cf0ee8-fe20-4b5a-8adf-0a4439756175" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2405,19 +2408,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/設計書・定義書/03_ファイル構成一覧表_Panban_0610pm_2.xlsx
+++ b/doc/設計書・定義書/03_ファイル構成一覧表_Panban_0610pm_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D1\doc\設計書・定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFC1F6D-7601-4D82-96A8-5EB241EFEB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DDCAEB-FADB-40DB-9D95-B5AA0BA834EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="96">
   <si>
     <t>ステータス</t>
     <phoneticPr fontId="1"/>
@@ -505,16 +505,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>浅井、林</t>
-    <rPh sb="0" eb="2">
-      <t>アサイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ハヤシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>質問への回答画面用jsp</t>
     <rPh sb="0" eb="2">
       <t>シツモン</t>
@@ -562,6 +552,45 @@
   </si>
   <si>
     <t>NewLoginServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浅井、林、正木</t>
+    <rPh sb="0" eb="2">
+      <t>アサイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハヤシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>マサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>風間、神宮寺</t>
+    <rPh sb="0" eb="2">
+      <t>カザマ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジングウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浅井、林、正木、榎本</t>
+    <rPh sb="0" eb="2">
+      <t>アサイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハヤシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>マサキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>エノモト</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1037,7 +1066,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1129,7 +1158,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
@@ -1147,7 +1176,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>18</v>
@@ -1165,7 +1194,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="36" x14ac:dyDescent="0.45">
@@ -1201,7 +1230,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
@@ -1236,7 +1265,9 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="N6" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="7" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -1270,7 +1301,9 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="N7" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C8" s="1">
@@ -1301,7 +1334,9 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="N8" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C9" s="1">
@@ -1332,7 +1367,9 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="N9" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C10" s="1">
@@ -1349,7 +1386,7 @@
         <v>39</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="12">
         <v>45467</v>
@@ -1363,7 +1400,9 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="N10" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C11" s="1">
@@ -1391,7 +1430,9 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="N11" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C12" s="1">
@@ -1668,7 +1709,9 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="N20" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C21" s="1">
@@ -1699,7 +1742,9 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="N21" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C22" s="1">
@@ -1730,7 +1775,9 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="N22" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C23" s="1">
@@ -1761,7 +1808,9 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="N23" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C24" s="1">
@@ -1792,7 +1841,9 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="N24" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C25" s="1">
@@ -1823,7 +1874,9 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="N25" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C26" s="1">
@@ -1854,7 +1907,9 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+      <c r="N26" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C27" s="1">
@@ -1883,7 +1938,9 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
+      <c r="N27" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C28" s="1">
@@ -1914,7 +1971,9 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
+      <c r="N28" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C29" s="1">
@@ -1945,7 +2004,9 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
+      <c r="N29" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C30" s="1">
@@ -1976,7 +2037,9 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
+      <c r="N30" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C31" s="1">
@@ -1993,7 +2056,7 @@
         <v>66</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H31" s="12">
         <v>45453</v>
@@ -2007,7 +2070,9 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
+      <c r="N31" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C32" s="1">
@@ -2024,7 +2089,7 @@
         <v>67</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H32" s="12">
         <v>45453</v>
@@ -2038,7 +2103,9 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
+      <c r="N32" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="33" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C33" s="1">
@@ -2055,7 +2122,7 @@
         <v>68</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H33" s="12">
         <v>45453</v>
@@ -2117,7 +2184,7 @@
         <v>72</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H35" s="12">
         <v>45453</v>
@@ -2235,20 +2302,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="87cf0ee8-fe20-4b5a-8adf-0a4439756175" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="87cf0ee8-fe20-4b5a-8adf-0a4439756175" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2408,19 +2475,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/設計書・定義書/03_ファイル構成一覧表_Panban_0610pm_2.xlsx
+++ b/doc/設計書・定義書/03_ファイル構成一覧表_Panban_0610pm_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D1\doc\設計書・定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DDCAEB-FADB-40DB-9D95-B5AA0BA834EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7C5FBD-04C2-488E-89CB-46E6AFD3297E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$30</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="101">
   <si>
     <t>ステータス</t>
     <phoneticPr fontId="1"/>
@@ -590,6 +590,44 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>エノモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScoreResistServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>風間、神宮寺、榎本</t>
+    <rPh sb="0" eb="2">
+      <t>カザマ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジングウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>エノモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浅井</t>
+    <rPh sb="0" eb="2">
+      <t>アサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャット機能</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1063,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1202,7 +1240,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C40" si="0">ROW()-2</f>
+        <f t="shared" ref="C5:C41" si="0">ROW()-2</f>
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1266,7 +1304,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="36" x14ac:dyDescent="0.45">
@@ -1405,68 +1443,60 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C11" s="1">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="12">
-        <v>45468</v>
-      </c>
-      <c r="I11" s="12">
-        <v>45464</v>
-      </c>
-      <c r="J11" s="12">
-        <v>45468</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C12" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="H12" s="12">
-        <v>45463</v>
+        <v>45468</v>
       </c>
       <c r="I12" s="12">
         <v>45464</v>
       </c>
-      <c r="J12" s="13">
-        <v>45463</v>
+      <c r="J12" s="12">
+        <v>45468</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="N12" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>37</v>
@@ -1475,19 +1505,19 @@
         <v>41</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H13" s="12">
-        <v>45464</v>
+        <v>45463</v>
       </c>
       <c r="I13" s="12">
         <v>45464</v>
       </c>
       <c r="J13" s="13">
-        <v>45464</v>
+        <v>45463</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1495,30 +1525,29 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C14" s="9">
-        <f t="shared" si="0"/>
-        <v>12</v>
+      <c r="C14" s="1">
+        <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="H14" s="12">
-        <v>45460</v>
+        <v>45464</v>
       </c>
       <c r="I14" s="12">
         <v>45464</v>
       </c>
       <c r="J14" s="13">
-        <v>45460</v>
+        <v>45464</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1534,13 +1563,13 @@
         <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="H15" s="12">
         <v>45460</v>
@@ -1557,7 +1586,7 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C16" s="1">
+      <c r="C16" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1565,22 +1594,22 @@
         <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H16" s="12">
-        <v>45463</v>
+        <v>45460</v>
       </c>
       <c r="I16" s="12">
         <v>45464</v>
       </c>
       <c r="J16" s="13">
-        <v>45463</v>
+        <v>45460</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1598,20 +1627,20 @@
       <c r="E17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>46</v>
+      <c r="F17" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H17" s="12">
-        <v>45460</v>
+        <v>45463</v>
       </c>
       <c r="I17" s="12">
         <v>45464</v>
       </c>
       <c r="J17" s="13">
-        <v>45460</v>
+        <v>45463</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1630,19 +1659,19 @@
         <v>34</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H18" s="12">
-        <v>45464</v>
+        <v>45460</v>
       </c>
       <c r="I18" s="12">
         <v>45464</v>
       </c>
       <c r="J18" s="13">
-        <v>45464</v>
+        <v>45460</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1661,19 +1690,19 @@
         <v>34</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H19" s="12">
-        <v>45463</v>
+        <v>45464</v>
       </c>
       <c r="I19" s="12">
         <v>45464</v>
       </c>
-      <c r="J19" s="12">
-        <v>45463</v>
+      <c r="J19" s="13">
+        <v>45464</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1686,32 +1715,30 @@
         <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>50</v>
+        <v>34</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="H20" s="12">
-        <v>45464</v>
+        <v>45463</v>
       </c>
       <c r="I20" s="12">
         <v>45464</v>
       </c>
-      <c r="J20" s="13">
-        <v>45464</v>
+      <c r="J20" s="12">
+        <v>45463</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="N20" s="1"/>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C21" s="1">
@@ -1724,11 +1751,11 @@
       <c r="E21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>51</v>
+      <c r="F21" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H21" s="12">
         <v>45464</v>
@@ -1737,7 +1764,7 @@
         <v>45464</v>
       </c>
       <c r="J21" s="13">
-        <v>45465</v>
+        <v>45464</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1758,10 +1785,10 @@
         <v>49</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H22" s="12">
         <v>45464</v>
@@ -1770,7 +1797,7 @@
         <v>45464</v>
       </c>
       <c r="J22" s="13">
-        <v>45466</v>
+        <v>45465</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1791,10 +1818,10 @@
         <v>49</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H23" s="12">
         <v>45464</v>
@@ -1803,7 +1830,7 @@
         <v>45464</v>
       </c>
       <c r="J23" s="13">
-        <v>45467</v>
+        <v>45466</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -1818,31 +1845,31 @@
         <v>22</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>59</v>
+        <v>49</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="H24" s="12">
-        <v>45453</v>
+        <v>45464</v>
       </c>
       <c r="I24" s="12">
         <v>45464</v>
       </c>
       <c r="J24" s="13">
-        <v>45453</v>
+        <v>45467</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.45">
@@ -1856,11 +1883,11 @@
       <c r="E25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>60</v>
+      <c r="F25" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H25" s="12">
         <v>45453</v>
@@ -1890,10 +1917,10 @@
         <v>58</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H26" s="12">
         <v>45453</v>
@@ -1923,9 +1950,11 @@
         <v>58</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="H27" s="12">
         <v>45453</v>
       </c>
@@ -1954,11 +1983,9 @@
         <v>58</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G28" s="6"/>
       <c r="H28" s="12">
         <v>45453</v>
       </c>
@@ -1987,10 +2014,10 @@
         <v>58</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H29" s="12">
         <v>45453</v>
@@ -2020,10 +2047,10 @@
         <v>58</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H30" s="12">
         <v>45453</v>
@@ -2053,10 +2080,10 @@
         <v>58</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H31" s="12">
         <v>45453</v>
@@ -2086,10 +2113,10 @@
         <v>58</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H32" s="12">
         <v>45453</v>
@@ -2119,10 +2146,10 @@
         <v>58</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H33" s="12">
         <v>45453</v>
@@ -2136,7 +2163,9 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
+      <c r="N33" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C34" s="1">
@@ -2144,16 +2173,16 @@
         <v>32</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H34" s="12">
         <v>45453</v>
@@ -2181,10 +2210,10 @@
         <v>70</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H35" s="12">
         <v>45453</v>
@@ -2205,13 +2234,27 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H36" s="12">
+        <v>45453</v>
+      </c>
+      <c r="I36" s="12">
+        <v>45464</v>
+      </c>
+      <c r="J36" s="13">
+        <v>45453</v>
+      </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -2285,37 +2328,54 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C41" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C2:N29" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
+  <autoFilter ref="C2:N30" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M40" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M41" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
       <formula1>$A$2:$A$7</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F20" r:id="rId1" xr:uid="{AED34236-76F8-4C4D-991A-ABFE80132E8F}"/>
-    <hyperlink ref="F24" r:id="rId2" xr:uid="{E011FEBF-22E1-40FB-82E6-922801E81208}"/>
+    <hyperlink ref="F21" r:id="rId1" xr:uid="{AED34236-76F8-4C4D-991A-ABFE80132E8F}"/>
+    <hyperlink ref="F25" r:id="rId2" xr:uid="{E011FEBF-22E1-40FB-82E6-922801E81208}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="87cf0ee8-fe20-4b5a-8adf-0a4439756175" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="87cf0ee8-fe20-4b5a-8adf-0a4439756175" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2475,19 +2535,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/設計書・定義書/03_ファイル構成一覧表_Panban_0610pm_2.xlsx
+++ b/doc/設計書・定義書/03_ファイル構成一覧表_Panban_0610pm_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D1\doc\設計書・定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DDCAEB-FADB-40DB-9D95-B5AA0BA834EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2FE152-CF7B-42A2-B937-46CE31F124E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -1065,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2302,20 +2302,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="87cf0ee8-fe20-4b5a-8adf-0a4439756175" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="87cf0ee8-fe20-4b5a-8adf-0a4439756175" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2475,19 +2475,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/設計書・定義書/03_ファイル構成一覧表_Panban_0610pm_2.xlsx
+++ b/doc/設計書・定義書/03_ファイル構成一覧表_Panban_0610pm_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D1\doc\設計書・定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2FE152-CF7B-42A2-B937-46CE31F124E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F5F5F7-3354-4DC3-8201-4D7190BB1E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -598,7 +598,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -625,15 +625,6 @@
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -697,11 +688,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -739,18 +727,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1065,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1145,13 +1132,13 @@
       <c r="G3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="11">
         <v>45460</v>
       </c>
-      <c r="I3" s="12">
-        <v>45464</v>
-      </c>
-      <c r="J3" s="12">
+      <c r="I3" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J3" s="11">
         <v>45460</v>
       </c>
       <c r="K3" s="1"/>
@@ -1181,13 +1168,13 @@
       <c r="G4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>45461</v>
       </c>
-      <c r="I4" s="12">
-        <v>45464</v>
-      </c>
-      <c r="J4" s="12">
+      <c r="I4" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J4" s="11">
         <v>45461</v>
       </c>
       <c r="K4" s="1"/>
@@ -1217,13 +1204,13 @@
       <c r="G5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>45462</v>
       </c>
-      <c r="I5" s="12">
-        <v>45464</v>
-      </c>
-      <c r="J5" s="12">
+      <c r="I5" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J5" s="11">
         <v>45462</v>
       </c>
       <c r="K5" s="1"/>
@@ -1253,13 +1240,13 @@
       <c r="G6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>45463</v>
       </c>
-      <c r="I6" s="12">
-        <v>45464</v>
-      </c>
-      <c r="J6" s="12">
+      <c r="I6" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J6" s="11">
         <v>45463</v>
       </c>
       <c r="K6" s="1"/>
@@ -1289,13 +1276,13 @@
       <c r="G7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="12">
-        <v>45464</v>
-      </c>
-      <c r="I7" s="12">
-        <v>45464</v>
-      </c>
-      <c r="J7" s="12">
+      <c r="H7" s="11">
+        <v>45464</v>
+      </c>
+      <c r="I7" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J7" s="11">
         <v>45464</v>
       </c>
       <c r="K7" s="1"/>
@@ -1322,13 +1309,13 @@
       <c r="G8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="12">
-        <v>45464</v>
-      </c>
-      <c r="I8" s="12">
-        <v>45464</v>
-      </c>
-      <c r="J8" s="12">
+      <c r="H8" s="11">
+        <v>45464</v>
+      </c>
+      <c r="I8" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J8" s="11">
         <v>45464</v>
       </c>
       <c r="K8" s="1"/>
@@ -1355,13 +1342,13 @@
       <c r="G9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="12">
-        <v>45464</v>
-      </c>
-      <c r="I9" s="12">
-        <v>45464</v>
-      </c>
-      <c r="J9" s="12">
+      <c r="H9" s="11">
+        <v>45464</v>
+      </c>
+      <c r="I9" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J9" s="11">
         <v>45464</v>
       </c>
       <c r="K9" s="1"/>
@@ -1388,13 +1375,13 @@
       <c r="G10" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <v>45467</v>
       </c>
-      <c r="I10" s="12">
-        <v>45464</v>
-      </c>
-      <c r="J10" s="12">
+      <c r="I10" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J10" s="11">
         <v>45467</v>
       </c>
       <c r="K10" s="1"/>
@@ -1418,13 +1405,13 @@
         <v>40</v>
       </c>
       <c r="G11" s="6"/>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <v>45468</v>
       </c>
-      <c r="I11" s="12">
-        <v>45464</v>
-      </c>
-      <c r="J11" s="12">
+      <c r="I11" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J11" s="11">
         <v>45468</v>
       </c>
       <c r="K11" s="1"/>
@@ -1450,13 +1437,13 @@
       <c r="G12" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <v>45463</v>
       </c>
-      <c r="I12" s="12">
-        <v>45464</v>
-      </c>
-      <c r="J12" s="13">
+      <c r="I12" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J12" s="12">
         <v>45463</v>
       </c>
       <c r="K12" s="1"/>
@@ -1480,13 +1467,13 @@
       <c r="G13" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H13" s="12">
-        <v>45464</v>
-      </c>
-      <c r="I13" s="12">
-        <v>45464</v>
-      </c>
-      <c r="J13" s="13">
+      <c r="H13" s="11">
+        <v>45464</v>
+      </c>
+      <c r="I13" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J13" s="12">
         <v>45464</v>
       </c>
       <c r="K13" s="1"/>
@@ -1511,13 +1498,13 @@
       <c r="G14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="11">
         <v>45460</v>
       </c>
-      <c r="I14" s="12">
-        <v>45464</v>
-      </c>
-      <c r="J14" s="13">
+      <c r="I14" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J14" s="12">
         <v>45460</v>
       </c>
       <c r="K14" s="1"/>
@@ -1542,13 +1529,13 @@
       <c r="G15" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="11">
         <v>45460</v>
       </c>
-      <c r="I15" s="12">
-        <v>45464</v>
-      </c>
-      <c r="J15" s="13">
+      <c r="I15" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J15" s="12">
         <v>45460</v>
       </c>
       <c r="K15" s="1"/>
@@ -1573,13 +1560,13 @@
       <c r="G16" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="11">
         <v>45463</v>
       </c>
-      <c r="I16" s="12">
-        <v>45464</v>
-      </c>
-      <c r="J16" s="13">
+      <c r="I16" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J16" s="12">
         <v>45463</v>
       </c>
       <c r="K16" s="1"/>
@@ -1604,13 +1591,13 @@
       <c r="G17" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="11">
         <v>45460</v>
       </c>
-      <c r="I17" s="12">
-        <v>45464</v>
-      </c>
-      <c r="J17" s="13">
+      <c r="I17" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J17" s="12">
         <v>45460</v>
       </c>
       <c r="K17" s="1"/>
@@ -1635,13 +1622,13 @@
       <c r="G18" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="12">
-        <v>45464</v>
-      </c>
-      <c r="I18" s="12">
-        <v>45464</v>
-      </c>
-      <c r="J18" s="13">
+      <c r="H18" s="11">
+        <v>45464</v>
+      </c>
+      <c r="I18" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J18" s="12">
         <v>45464</v>
       </c>
       <c r="K18" s="1"/>
@@ -1666,13 +1653,13 @@
       <c r="G19" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="11">
         <v>45463</v>
       </c>
-      <c r="I19" s="12">
-        <v>45464</v>
-      </c>
-      <c r="J19" s="12">
+      <c r="I19" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J19" s="11">
         <v>45463</v>
       </c>
       <c r="K19" s="1"/>
@@ -1691,19 +1678,19 @@
       <c r="E20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="13" t="s">
         <v>50</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H20" s="12">
-        <v>45464</v>
-      </c>
-      <c r="I20" s="12">
-        <v>45464</v>
-      </c>
-      <c r="J20" s="13">
+      <c r="H20" s="11">
+        <v>45464</v>
+      </c>
+      <c r="I20" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J20" s="12">
         <v>45464</v>
       </c>
       <c r="K20" s="1"/>
@@ -1730,13 +1717,13 @@
       <c r="G21" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="12">
-        <v>45464</v>
-      </c>
-      <c r="I21" s="12">
-        <v>45464</v>
-      </c>
-      <c r="J21" s="13">
+      <c r="H21" s="11">
+        <v>45464</v>
+      </c>
+      <c r="I21" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J21" s="12">
         <v>45465</v>
       </c>
       <c r="K21" s="1"/>
@@ -1763,13 +1750,13 @@
       <c r="G22" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="12">
-        <v>45464</v>
-      </c>
-      <c r="I22" s="12">
-        <v>45464</v>
-      </c>
-      <c r="J22" s="13">
+      <c r="H22" s="11">
+        <v>45464</v>
+      </c>
+      <c r="I22" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J22" s="12">
         <v>45466</v>
       </c>
       <c r="K22" s="1"/>
@@ -1796,13 +1783,13 @@
       <c r="G23" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="12">
-        <v>45464</v>
-      </c>
-      <c r="I23" s="12">
-        <v>45464</v>
-      </c>
-      <c r="J23" s="13">
+      <c r="H23" s="11">
+        <v>45464</v>
+      </c>
+      <c r="I23" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J23" s="12">
         <v>45467</v>
       </c>
       <c r="K23" s="1"/>
@@ -1823,19 +1810,19 @@
       <c r="E24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="13" t="s">
         <v>59</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="11">
         <v>45453</v>
       </c>
-      <c r="I24" s="12">
-        <v>45464</v>
-      </c>
-      <c r="J24" s="13">
+      <c r="I24" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J24" s="12">
         <v>45453</v>
       </c>
       <c r="K24" s="1"/>
@@ -1862,13 +1849,13 @@
       <c r="G25" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="11">
         <v>45453</v>
       </c>
-      <c r="I25" s="12">
-        <v>45464</v>
-      </c>
-      <c r="J25" s="13">
+      <c r="I25" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J25" s="12">
         <v>45453</v>
       </c>
       <c r="K25" s="1"/>
@@ -1895,13 +1882,13 @@
       <c r="G26" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="11">
         <v>45453</v>
       </c>
-      <c r="I26" s="12">
-        <v>45464</v>
-      </c>
-      <c r="J26" s="13">
+      <c r="I26" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J26" s="12">
         <v>45453</v>
       </c>
       <c r="K26" s="1"/>
@@ -1926,13 +1913,13 @@
         <v>62</v>
       </c>
       <c r="G27" s="6"/>
-      <c r="H27" s="12">
+      <c r="H27" s="11">
         <v>45453</v>
       </c>
-      <c r="I27" s="12">
-        <v>45464</v>
-      </c>
-      <c r="J27" s="13">
+      <c r="I27" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J27" s="12">
         <v>45453</v>
       </c>
       <c r="K27" s="1"/>
@@ -1959,13 +1946,13 @@
       <c r="G28" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="11">
         <v>45453</v>
       </c>
-      <c r="I28" s="12">
-        <v>45464</v>
-      </c>
-      <c r="J28" s="13">
+      <c r="I28" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J28" s="12">
         <v>45453</v>
       </c>
       <c r="K28" s="1"/>
@@ -1992,13 +1979,13 @@
       <c r="G29" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="11">
         <v>45453</v>
       </c>
-      <c r="I29" s="12">
-        <v>45464</v>
-      </c>
-      <c r="J29" s="13">
+      <c r="I29" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J29" s="12">
         <v>45453</v>
       </c>
       <c r="K29" s="1"/>
@@ -2025,13 +2012,13 @@
       <c r="G30" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="11">
         <v>45453</v>
       </c>
-      <c r="I30" s="12">
-        <v>45464</v>
-      </c>
-      <c r="J30" s="13">
+      <c r="I30" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J30" s="12">
         <v>45453</v>
       </c>
       <c r="K30" s="1"/>
@@ -2058,13 +2045,13 @@
       <c r="G31" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="11">
         <v>45453</v>
       </c>
-      <c r="I31" s="12">
-        <v>45464</v>
-      </c>
-      <c r="J31" s="13">
+      <c r="I31" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J31" s="12">
         <v>45453</v>
       </c>
       <c r="K31" s="1"/>
@@ -2091,13 +2078,13 @@
       <c r="G32" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="11">
         <v>45453</v>
       </c>
-      <c r="I32" s="12">
-        <v>45464</v>
-      </c>
-      <c r="J32" s="13">
+      <c r="I32" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J32" s="12">
         <v>45453</v>
       </c>
       <c r="K32" s="1"/>
@@ -2124,13 +2111,13 @@
       <c r="G33" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="11">
         <v>45453</v>
       </c>
-      <c r="I33" s="12">
-        <v>45464</v>
-      </c>
-      <c r="J33" s="13">
+      <c r="I33" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J33" s="12">
         <v>45453</v>
       </c>
       <c r="K33" s="1"/>
@@ -2155,13 +2142,13 @@
       <c r="G34" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="11">
         <v>45453</v>
       </c>
-      <c r="I34" s="12">
-        <v>45464</v>
-      </c>
-      <c r="J34" s="13">
+      <c r="I34" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J34" s="12">
         <v>45453</v>
       </c>
       <c r="K34" s="1"/>
@@ -2186,13 +2173,13 @@
       <c r="G35" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="11">
         <v>45453</v>
       </c>
-      <c r="I35" s="12">
-        <v>45464</v>
-      </c>
-      <c r="J35" s="13">
+      <c r="I35" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J35" s="12">
         <v>45453</v>
       </c>
       <c r="K35" s="1"/>
@@ -2293,29 +2280,25 @@
       <formula1>$A$2:$A$7</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="F20" r:id="rId1" xr:uid="{AED34236-76F8-4C4D-991A-ABFE80132E8F}"/>
-    <hyperlink ref="F24" r:id="rId2" xr:uid="{E011FEBF-22E1-40FB-82E6-922801E81208}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="87cf0ee8-fe20-4b5a-8adf-0a4439756175" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="87cf0ee8-fe20-4b5a-8adf-0a4439756175" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2475,19 +2458,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/設計書・定義書/03_ファイル構成一覧表_Panban_0610pm_2.xlsx
+++ b/doc/設計書・定義書/03_ファイル構成一覧表_Panban_0610pm_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D1\doc\設計書・定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F5F5F7-3354-4DC3-8201-4D7190BB1E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC1A935-B0E0-4EBA-BDFF-AA3311A0C56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="99">
   <si>
     <t>ステータス</t>
     <phoneticPr fontId="1"/>
@@ -179,9 +179,6 @@
     <t>HomeServlet.java</t>
   </si>
   <si>
-    <t>ホーム画面初期表示。成績、正答率、得意科目、質問数、質問回答数、デイリーミッション、進捗度表示用</t>
-  </si>
-  <si>
     <t>未テスト</t>
     <rPh sb="0" eb="1">
       <t>ミ</t>
@@ -578,18 +575,31 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>浅井、林、正木、榎本</t>
+    <t>LogoutServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浅井</t>
     <rPh sb="0" eb="2">
       <t>アサイ</t>
     </rPh>
-    <rPh sb="3" eb="4">
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト処理用。</t>
+    <rPh sb="5" eb="8">
+      <t>ショリヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム画面初期表示。成績、正答率、得意科目、質問数、質問回答数表示用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>林</t>
+    <rPh sb="0" eb="1">
       <t>ハヤシ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>マサキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>エノモト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -733,7 +743,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1050,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1133,19 +1143,25 @@
         <v>16</v>
       </c>
       <c r="H3" s="11">
-        <v>45460</v>
+        <v>45454</v>
       </c>
       <c r="I3" s="11">
-        <v>45464</v>
+        <v>45454</v>
       </c>
       <c r="J3" s="11">
-        <v>45460</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+        <v>45454</v>
+      </c>
+      <c r="K3" s="12">
+        <v>45457</v>
+      </c>
+      <c r="L3" s="13">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="N3" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
@@ -1153,43 +1169,48 @@
         <v>17</v>
       </c>
       <c r="C4" s="1">
-        <f>ROW()-2</f>
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>92</v>
+        <v>37</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="H4" s="11">
-        <v>45461</v>
+        <v>45456</v>
       </c>
       <c r="I4" s="11">
-        <v>45464</v>
+        <v>45456</v>
       </c>
       <c r="J4" s="11">
-        <v>45461</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+        <v>45456</v>
+      </c>
+      <c r="K4" s="12">
+        <v>45460</v>
+      </c>
+      <c r="L4" s="13">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="N4" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="36" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C40" si="0">ROW()-2</f>
+        <f>ROW()-2</f>
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1199,33 +1220,39 @@
         <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="11">
+        <v>45454</v>
+      </c>
+      <c r="I5" s="11">
+        <v>45455</v>
+      </c>
+      <c r="J5" s="11">
+        <v>45454</v>
+      </c>
+      <c r="K5" s="12">
+        <v>45457</v>
+      </c>
+      <c r="L5" s="13">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="11">
-        <v>45462</v>
-      </c>
-      <c r="I5" s="11">
-        <v>45464</v>
-      </c>
-      <c r="J5" s="11">
-        <v>45462</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
       <c r="N5" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C6:C41" si="0">ROW()-2</f>
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1235,30 +1262,36 @@
         <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="11">
+        <v>45454</v>
+      </c>
+      <c r="I6" s="11">
+        <v>45456</v>
+      </c>
+      <c r="J6" s="11">
+        <v>45454</v>
+      </c>
+      <c r="K6" s="11">
+        <v>45464</v>
+      </c>
+      <c r="L6" s="13">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>24</v>
-      </c>
-      <c r="H6" s="11">
-        <v>45463</v>
-      </c>
-      <c r="I6" s="11">
-        <v>45464</v>
-      </c>
-      <c r="J6" s="11">
-        <v>45463</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="36" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>25</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
@@ -1270,26 +1303,28 @@
       <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>26</v>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H7" s="11">
-        <v>45464</v>
+        <v>45463</v>
       </c>
       <c r="I7" s="11">
         <v>45464</v>
       </c>
       <c r="J7" s="11">
-        <v>45464</v>
+        <v>45463</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="N7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="36" x14ac:dyDescent="0.45">
@@ -1303,11 +1338,11 @@
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>28</v>
+      <c r="F8" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H8" s="11">
         <v>45464</v>
@@ -1322,10 +1357,10 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1337,10 +1372,10 @@
         <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H9" s="11">
         <v>45464</v>
@@ -1355,10 +1390,10 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="36" x14ac:dyDescent="0.45">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1370,81 +1405,82 @@
         <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="H10" s="11">
-        <v>45467</v>
+        <v>45464</v>
       </c>
       <c r="I10" s="11">
         <v>45464</v>
       </c>
       <c r="J10" s="11">
-        <v>45467</v>
+        <v>45464</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C11" s="1">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="H11" s="11">
-        <v>45468</v>
+        <v>45467</v>
       </c>
       <c r="I11" s="11">
         <v>45464</v>
       </c>
       <c r="J11" s="11">
-        <v>45468</v>
+        <v>45467</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C12" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>74</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G12" s="6"/>
       <c r="H12" s="11">
-        <v>45463</v>
+        <v>45468</v>
       </c>
       <c r="I12" s="11">
         <v>45464</v>
       </c>
-      <c r="J12" s="12">
-        <v>45463</v>
+      <c r="J12" s="11">
+        <v>45468</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1453,28 +1489,28 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>73</v>
       </c>
       <c r="H13" s="11">
-        <v>45464</v>
+        <v>45463</v>
       </c>
       <c r="I13" s="11">
         <v>45464</v>
       </c>
       <c r="J13" s="12">
-        <v>45464</v>
+        <v>45463</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1482,30 +1518,29 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C14" s="9">
-        <f t="shared" si="0"/>
-        <v>12</v>
+      <c r="C14" s="1">
+        <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="H14" s="11">
-        <v>45460</v>
+        <v>45464</v>
       </c>
       <c r="I14" s="11">
         <v>45464</v>
       </c>
       <c r="J14" s="12">
-        <v>45460</v>
+        <v>45464</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1521,13 +1556,13 @@
         <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="H15" s="11">
         <v>45460</v>
@@ -1544,7 +1579,7 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C16" s="1">
+      <c r="C16" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1552,22 +1587,22 @@
         <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="G16" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H16" s="11">
-        <v>45463</v>
+        <v>45460</v>
       </c>
       <c r="I16" s="11">
         <v>45464</v>
       </c>
       <c r="J16" s="12">
-        <v>45463</v>
+        <v>45460</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1583,22 +1618,22 @@
         <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>46</v>
+        <v>33</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H17" s="11">
-        <v>45460</v>
+        <v>45463</v>
       </c>
       <c r="I17" s="11">
         <v>45464</v>
       </c>
       <c r="J17" s="12">
-        <v>45460</v>
+        <v>45463</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1614,22 +1649,22 @@
         <v>13</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H18" s="11">
-        <v>45464</v>
+        <v>45460</v>
       </c>
       <c r="I18" s="11">
         <v>45464</v>
       </c>
       <c r="J18" s="12">
-        <v>45464</v>
+        <v>45460</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1645,22 +1680,22 @@
         <v>13</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H19" s="11">
-        <v>45463</v>
+        <v>45464</v>
       </c>
       <c r="I19" s="11">
         <v>45464</v>
       </c>
-      <c r="J19" s="11">
-        <v>45463</v>
+      <c r="J19" s="12">
+        <v>45464</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1673,31 +1708,31 @@
         <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>50</v>
+        <v>33</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="H20" s="11">
-        <v>45464</v>
+        <v>45463</v>
       </c>
       <c r="I20" s="11">
         <v>45464</v>
       </c>
-      <c r="J20" s="12">
-        <v>45464</v>
+      <c r="J20" s="11">
+        <v>45463</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.45">
@@ -1706,16 +1741,16 @@
         <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="G21" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H21" s="11">
         <v>45464</v>
@@ -1724,13 +1759,13 @@
         <v>45464</v>
       </c>
       <c r="J21" s="12">
-        <v>45465</v>
+        <v>45464</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.45">
@@ -1739,16 +1774,16 @@
         <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H22" s="11">
         <v>45464</v>
@@ -1757,13 +1792,13 @@
         <v>45464</v>
       </c>
       <c r="J22" s="12">
-        <v>45466</v>
+        <v>45465</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.45">
@@ -1772,13 +1807,13 @@
         <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>56</v>
@@ -1790,13 +1825,13 @@
         <v>45464</v>
       </c>
       <c r="J23" s="12">
-        <v>45467</v>
+        <v>45466</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.45">
@@ -1805,31 +1840,31 @@
         <v>22</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>59</v>
+        <v>48</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="H24" s="11">
-        <v>45453</v>
+        <v>45464</v>
       </c>
       <c r="I24" s="11">
         <v>45464</v>
       </c>
       <c r="J24" s="12">
-        <v>45453</v>
+        <v>45467</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.45">
@@ -1838,16 +1873,16 @@
         <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="G25" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H25" s="11">
         <v>45453</v>
@@ -1862,7 +1897,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.45">
@@ -1871,16 +1906,16 @@
         <v>24</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H26" s="11">
         <v>45453</v>
@@ -1895,7 +1930,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.45">
@@ -1904,15 +1939,17 @@
         <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H27" s="11">
         <v>45453</v>
       </c>
@@ -1926,7 +1963,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.45">
@@ -1935,17 +1972,15 @@
         <v>26</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G28" s="6"/>
       <c r="H28" s="11">
         <v>45453</v>
       </c>
@@ -1959,7 +1994,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.45">
@@ -1968,16 +2003,16 @@
         <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H29" s="11">
         <v>45453</v>
@@ -1992,7 +2027,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.45">
@@ -2001,16 +2036,16 @@
         <v>28</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>64</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H30" s="11">
         <v>45453</v>
@@ -2025,7 +2060,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.45">
@@ -2034,16 +2069,16 @@
         <v>29</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H31" s="11">
         <v>45453</v>
@@ -2058,7 +2093,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.45">
@@ -2067,16 +2102,16 @@
         <v>30</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H32" s="11">
         <v>45453</v>
@@ -2091,7 +2126,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="3:14" x14ac:dyDescent="0.45">
@@ -2100,13 +2135,13 @@
         <v>31</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>87</v>
@@ -2131,16 +2166,16 @@
         <v>32</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H34" s="11">
         <v>45453</v>
@@ -2162,16 +2197,16 @@
         <v>33</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="G35" s="6" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H35" s="11">
         <v>45453</v>
@@ -2192,13 +2227,27 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H36" s="11">
+        <v>45453</v>
+      </c>
+      <c r="I36" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J36" s="12">
+        <v>45453</v>
+      </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -2271,6 +2320,19 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C41" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="C2:N29" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
@@ -2285,20 +2347,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="87cf0ee8-fe20-4b5a-8adf-0a4439756175" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="87cf0ee8-fe20-4b5a-8adf-0a4439756175" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2458,19 +2520,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/設計書・定義書/03_ファイル構成一覧表_Panban_0610pm_2.xlsx
+++ b/doc/設計書・定義書/03_ファイル構成一覧表_Panban_0610pm_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D1\doc\設計書・定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC1A935-B0E0-4EBA-BDFF-AA3311A0C56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DCD8D2-4192-499E-A856-EC816324A929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$39</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="128">
   <si>
     <t>ステータス</t>
     <phoneticPr fontId="1"/>
@@ -579,13 +579,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>浅井</t>
-    <rPh sb="0" eb="2">
-      <t>アサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログアウト処理用。</t>
     <rPh sb="5" eb="8">
       <t>ショリヨウ</t>
@@ -597,9 +590,261 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>林</t>
-    <rPh sb="0" eb="1">
+    <t>AnsResult.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>modal.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NewLogin.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QueResult.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Result.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScoreConvert.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScoreRegist.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StudentQueSub.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StudentQueSubResult.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録画面デザイン</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問回答画面のデザイン。</t>
+    <rPh sb="0" eb="6">
+      <t>シツモンカイトウガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モダールウィンドウ入力画面デザイン</t>
+    <rPh sb="9" eb="13">
+      <t>ニュウリョクガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーダルウィンドウ画面デザイン</t>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問履歴画面デザイン</t>
+    <rPh sb="0" eb="4">
+      <t>シツモンリレキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成績入力画面デザイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成績100点換算画面デザイン</t>
+    <rPh sb="0" eb="2">
+      <t>セイセキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問メニュー画面デザイン</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AnsResult.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QueResult.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問回答画面のjsp。</t>
+    <rPh sb="0" eb="6">
+      <t>シツモンカイトウガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問履歴画面のjsp。</t>
+    <rPh sb="0" eb="4">
+      <t>シツモンリレキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理結果表示画面jsp</t>
+    <rPh sb="0" eb="4">
+      <t>ショリケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理結果デザイン</t>
+    <rPh sb="0" eb="4">
+      <t>ショリケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浅井、林、正木、榎本</t>
+    <rPh sb="0" eb="2">
+      <t>アサイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
       <t>ハヤシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>マサキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>エノモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>風間、神宮寺、榎本</t>
+    <rPh sb="0" eb="2">
+      <t>カザマ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジングウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>エノモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浅井、榎本</t>
+    <rPh sb="0" eb="2">
+      <t>アサイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エノモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>風間、神宮寺、正木</t>
+    <rPh sb="0" eb="2">
+      <t>カザマ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジングウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>マサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>風間、神宮寺、浅井、林、榎本</t>
+    <rPh sb="0" eb="2">
+      <t>カザマ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジングウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>アサイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハヤシ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>エノモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浅井、林、正木、風間</t>
+    <rPh sb="0" eb="2">
+      <t>アサイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハヤシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>マサキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カザマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>風間、神宮寺、正木、榎本</t>
+    <rPh sb="0" eb="2">
+      <t>カザマ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジングウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>マサキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>エノモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>風間</t>
+    <rPh sb="0" eb="2">
+      <t>カザマ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1060,10 +1305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="F6" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1075,7 +1320,7 @@
     <col min="7" max="7" width="50.3984375" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="16.09765625" customWidth="1"/>
+    <col min="14" max="14" width="28.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
@@ -1146,7 +1391,7 @@
         <v>45454</v>
       </c>
       <c r="I3" s="11">
-        <v>45454</v>
+        <v>45464</v>
       </c>
       <c r="J3" s="11">
         <v>45454</v>
@@ -1158,10 +1403,10 @@
         <v>1</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
@@ -1181,13 +1426,13 @@
         <v>94</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H4" s="11">
         <v>45456</v>
       </c>
       <c r="I4" s="11">
-        <v>45456</v>
+        <v>45464</v>
       </c>
       <c r="J4" s="11">
         <v>45456</v>
@@ -1199,10 +1444,10 @@
         <v>1</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
@@ -1229,7 +1474,7 @@
         <v>45454</v>
       </c>
       <c r="I5" s="11">
-        <v>45455</v>
+        <v>45464</v>
       </c>
       <c r="J5" s="11">
         <v>45454</v>
@@ -1241,10 +1486,10 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="36" x14ac:dyDescent="0.45">
@@ -1252,7 +1497,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" ref="C6:C41" si="0">ROW()-2</f>
+        <f t="shared" ref="C6:C53" si="0">ROW()-2</f>
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1265,13 +1510,13 @@
         <v>20</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H6" s="11">
         <v>45454</v>
       </c>
       <c r="I6" s="11">
-        <v>45456</v>
+        <v>45464</v>
       </c>
       <c r="J6" s="11">
         <v>45454</v>
@@ -1283,10 +1528,10 @@
         <v>1</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
@@ -1318,10 +1563,14 @@
       <c r="J7" s="11">
         <v>45463</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="K7" s="12">
+        <v>45468</v>
+      </c>
+      <c r="L7" s="13">
+        <v>1</v>
+      </c>
       <c r="M7" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>92</v>
@@ -1353,9 +1602,15 @@
       <c r="J8" s="11">
         <v>45464</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="K8" s="12">
+        <v>45468</v>
+      </c>
+      <c r="L8" s="13">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="N8" s="1" t="s">
         <v>92</v>
       </c>
@@ -1386,9 +1641,15 @@
       <c r="J9" s="11">
         <v>45464</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="K9" s="12">
+        <v>45468</v>
+      </c>
+      <c r="L9" s="13">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="N9" s="1" t="s">
         <v>92</v>
       </c>
@@ -1419,9 +1680,15 @@
       <c r="J10" s="11">
         <v>45464</v>
       </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="K10" s="12">
+        <v>45468</v>
+      </c>
+      <c r="L10" s="13">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="N10" s="1" t="s">
         <v>92</v>
       </c>
@@ -1452,11 +1719,17 @@
       <c r="J11" s="11">
         <v>45467</v>
       </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="K11" s="12">
+        <v>45468</v>
+      </c>
+      <c r="L11" s="13">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
@@ -1482,10 +1755,18 @@
       <c r="J12" s="11">
         <v>45468</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="K12" s="12">
+        <v>45468</v>
+      </c>
+      <c r="L12" s="13">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C13" s="1">
@@ -1512,10 +1793,18 @@
       <c r="J13" s="12">
         <v>45463</v>
       </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="K13" s="12">
+        <v>45468</v>
+      </c>
+      <c r="L13" s="13">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C14" s="1">
@@ -1542,10 +1831,18 @@
       <c r="J14" s="12">
         <v>45464</v>
       </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="K14" s="12">
+        <v>45468</v>
+      </c>
+      <c r="L14" s="13">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C15" s="9">
@@ -1573,10 +1870,18 @@
       <c r="J15" s="12">
         <v>45460</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="K15" s="12">
+        <v>45468</v>
+      </c>
+      <c r="L15" s="13">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C16" s="9">
@@ -1604,10 +1909,18 @@
       <c r="J16" s="12">
         <v>45460</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="K16" s="12">
+        <v>45468</v>
+      </c>
+      <c r="L16" s="13">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C17" s="1">
@@ -1635,10 +1948,18 @@
       <c r="J17" s="12">
         <v>45463</v>
       </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="K17" s="12">
+        <v>45468</v>
+      </c>
+      <c r="L17" s="13">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C18" s="1">
@@ -1666,10 +1987,18 @@
       <c r="J18" s="12">
         <v>45460</v>
       </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="K18" s="12">
+        <v>45468</v>
+      </c>
+      <c r="L18" s="13">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C19" s="1">
@@ -1697,10 +2026,18 @@
       <c r="J19" s="12">
         <v>45464</v>
       </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="K19" s="12">
+        <v>45468</v>
+      </c>
+      <c r="L19" s="13">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C20" s="1">
@@ -1728,11 +2065,17 @@
       <c r="J20" s="11">
         <v>45463</v>
       </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="K20" s="12">
+        <v>45468</v>
+      </c>
+      <c r="L20" s="13">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="N20" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.45">
@@ -1761,9 +2104,15 @@
       <c r="J21" s="12">
         <v>45464</v>
       </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="K21" s="12">
+        <v>45467</v>
+      </c>
+      <c r="L21" s="13">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="N21" s="1" t="s">
         <v>93</v>
       </c>
@@ -1794,9 +2143,15 @@
       <c r="J22" s="12">
         <v>45465</v>
       </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="K22" s="12">
+        <v>45467</v>
+      </c>
+      <c r="L22" s="13">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="N22" s="1" t="s">
         <v>93</v>
       </c>
@@ -1827,9 +2182,15 @@
       <c r="J23" s="12">
         <v>45466</v>
       </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+      <c r="K23" s="12">
+        <v>45467</v>
+      </c>
+      <c r="L23" s="13">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="N23" s="1" t="s">
         <v>93</v>
       </c>
@@ -1858,13 +2219,19 @@
         <v>45464</v>
       </c>
       <c r="J24" s="12">
+        <v>45460</v>
+      </c>
+      <c r="K24" s="12">
         <v>45467</v>
       </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+      <c r="L24" s="13">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="N24" s="1" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.45">
@@ -1873,31 +2240,37 @@
         <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>80</v>
+        <v>48</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="H25" s="11">
-        <v>45453</v>
+        <v>45460</v>
       </c>
       <c r="I25" s="11">
         <v>45464</v>
       </c>
       <c r="J25" s="12">
-        <v>45453</v>
-      </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+        <v>45460</v>
+      </c>
+      <c r="K25" s="12">
+        <v>45467</v>
+      </c>
+      <c r="L25" s="13">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="N25" s="1" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.45">
@@ -1906,29 +2279,35 @@
         <v>24</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="H26" s="11">
-        <v>45453</v>
+        <v>45460</v>
       </c>
       <c r="I26" s="11">
         <v>45464</v>
       </c>
       <c r="J26" s="12">
-        <v>45453</v>
-      </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+        <v>45460</v>
+      </c>
+      <c r="K26" s="12">
+        <v>45467</v>
+      </c>
+      <c r="L26" s="13">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="N26" s="1" t="s">
         <v>93</v>
       </c>
@@ -1939,29 +2318,35 @@
         <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="H27" s="11">
-        <v>45453</v>
+        <v>45461</v>
       </c>
       <c r="I27" s="11">
         <v>45464</v>
       </c>
       <c r="J27" s="12">
-        <v>45453</v>
-      </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+        <v>45460</v>
+      </c>
+      <c r="K27" s="12">
+        <v>45467</v>
+      </c>
+      <c r="L27" s="13">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="N27" s="1" t="s">
         <v>93</v>
       </c>
@@ -1972,27 +2357,35 @@
         <v>26</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G28" s="6"/>
+        <v>99</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="H28" s="11">
-        <v>45453</v>
+        <v>45461</v>
       </c>
       <c r="I28" s="11">
         <v>45464</v>
       </c>
       <c r="J28" s="12">
-        <v>45453</v>
-      </c>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+        <v>45462</v>
+      </c>
+      <c r="K28" s="12">
+        <v>45467</v>
+      </c>
+      <c r="L28" s="13">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="N28" s="1" t="s">
         <v>93</v>
       </c>
@@ -2003,29 +2396,35 @@
         <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="H29" s="11">
-        <v>45453</v>
+        <v>45462</v>
       </c>
       <c r="I29" s="11">
         <v>45464</v>
       </c>
       <c r="J29" s="12">
-        <v>45453</v>
-      </c>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
+        <v>45462</v>
+      </c>
+      <c r="K29" s="12">
+        <v>45467</v>
+      </c>
+      <c r="L29" s="13">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="N29" s="1" t="s">
         <v>93</v>
       </c>
@@ -2036,29 +2435,35 @@
         <v>28</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="H30" s="11">
-        <v>45453</v>
+        <v>45463</v>
       </c>
       <c r="I30" s="11">
         <v>45464</v>
       </c>
       <c r="J30" s="12">
-        <v>45453</v>
-      </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
+        <v>45462</v>
+      </c>
+      <c r="K30" s="12">
+        <v>45467</v>
+      </c>
+      <c r="L30" s="13">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="N30" s="1" t="s">
         <v>93</v>
       </c>
@@ -2069,31 +2474,37 @@
         <v>29</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="H31" s="11">
-        <v>45453</v>
+        <v>45463</v>
       </c>
       <c r="I31" s="11">
         <v>45464</v>
       </c>
       <c r="J31" s="12">
-        <v>45453</v>
-      </c>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+        <v>45462</v>
+      </c>
+      <c r="K31" s="12">
+        <v>45467</v>
+      </c>
+      <c r="L31" s="13">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="N31" s="1" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.45">
@@ -2102,31 +2513,37 @@
         <v>30</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="H32" s="11">
-        <v>45453</v>
+        <v>45464</v>
       </c>
       <c r="I32" s="11">
         <v>45464</v>
       </c>
       <c r="J32" s="12">
-        <v>45453</v>
-      </c>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+        <v>45462</v>
+      </c>
+      <c r="K32" s="12">
+        <v>45467</v>
+      </c>
+      <c r="L32" s="13">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="N32" s="1" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="3:14" x14ac:dyDescent="0.45">
@@ -2135,30 +2552,38 @@
         <v>31</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="H33" s="11">
-        <v>45453</v>
+        <v>45464</v>
       </c>
       <c r="I33" s="11">
         <v>45464</v>
       </c>
       <c r="J33" s="12">
-        <v>45453</v>
-      </c>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
+        <v>45462</v>
+      </c>
+      <c r="K33" s="12">
+        <v>45467</v>
+      </c>
+      <c r="L33" s="13">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C34" s="1">
@@ -2166,30 +2591,38 @@
         <v>32</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="H34" s="11">
-        <v>45453</v>
+        <v>45467</v>
       </c>
       <c r="I34" s="11">
         <v>45464</v>
       </c>
       <c r="J34" s="12">
-        <v>45453</v>
-      </c>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
+        <v>45462</v>
+      </c>
+      <c r="K34" s="12">
+        <v>45467</v>
+      </c>
+      <c r="L34" s="13">
+        <v>1</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C35" s="1">
@@ -2197,16 +2630,16 @@
         <v>33</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
+      </c>
+      <c r="F35" t="s">
+        <v>58</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H35" s="11">
         <v>45453</v>
@@ -2217,10 +2650,18 @@
       <c r="J35" s="12">
         <v>45453</v>
       </c>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
+      <c r="K35" s="12">
+        <v>45464</v>
+      </c>
+      <c r="L35" s="13">
+        <v>1</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="36" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C36" s="1">
@@ -2228,16 +2669,16 @@
         <v>34</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H36" s="11">
         <v>45453</v>
@@ -2248,97 +2689,573 @@
       <c r="J36" s="12">
         <v>45453</v>
       </c>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
+      <c r="K36" s="12">
+        <v>45464</v>
+      </c>
+      <c r="L36" s="13">
+        <v>1</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="37" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H37" s="11">
+        <v>45455</v>
+      </c>
+      <c r="I37" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J37" s="12">
+        <v>45453</v>
+      </c>
+      <c r="K37" s="12">
+        <v>45464</v>
+      </c>
+      <c r="L37" s="13">
+        <v>1</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="38" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H38" s="11">
+        <v>45455</v>
+      </c>
+      <c r="I38" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J38" s="12">
+        <v>45453</v>
+      </c>
+      <c r="K38" s="12">
+        <v>45464</v>
+      </c>
+      <c r="L38" s="13">
+        <v>1</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="39" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H39" s="11">
+        <v>45457</v>
+      </c>
+      <c r="I39" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J39" s="12">
+        <v>45453</v>
+      </c>
+      <c r="K39" s="12">
+        <v>45464</v>
+      </c>
+      <c r="L39" s="13">
+        <v>1</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H40" s="11">
+        <v>45457</v>
+      </c>
+      <c r="I40" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J40" s="12">
+        <v>45453</v>
+      </c>
+      <c r="K40" s="12">
+        <v>45464</v>
+      </c>
+      <c r="L40" s="13">
+        <v>1</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="41" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H41" s="11">
+        <v>45459</v>
+      </c>
+      <c r="I41" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J41" s="12">
+        <v>45453</v>
+      </c>
+      <c r="K41" s="12">
+        <v>45464</v>
+      </c>
+      <c r="L41" s="13">
+        <v>1</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C42" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H42" s="11">
+        <v>45459</v>
+      </c>
+      <c r="I42" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J42" s="12">
+        <v>45453</v>
+      </c>
+      <c r="K42" s="12">
+        <v>45464</v>
+      </c>
+      <c r="L42" s="13">
+        <v>1</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C43" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H43" s="11">
+        <v>45461</v>
+      </c>
+      <c r="I43" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J43" s="12">
+        <v>45453</v>
+      </c>
+      <c r="K43" s="12">
+        <v>45464</v>
+      </c>
+      <c r="L43" s="13">
+        <v>1</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C44" s="1">
+        <f>ROW()-2</f>
+        <v>42</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H44" s="11">
+        <v>45461</v>
+      </c>
+      <c r="I44" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J44" s="12">
+        <v>45453</v>
+      </c>
+      <c r="K44" s="12">
+        <v>45464</v>
+      </c>
+      <c r="L44" s="13">
+        <v>1</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C45" s="1">
+        <f t="shared" ref="C45:C46" si="1">ROW()-2</f>
+        <v>43</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H45" s="11">
+        <v>45460</v>
+      </c>
+      <c r="I45" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J45" s="12">
+        <v>45460</v>
+      </c>
+      <c r="K45" s="12">
+        <v>45464</v>
+      </c>
+      <c r="L45" s="13">
+        <v>1</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C46" s="1">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H46" s="11">
+        <v>45460</v>
+      </c>
+      <c r="I46" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J46" s="12">
+        <v>45461</v>
+      </c>
+      <c r="K46" s="12">
+        <v>45464</v>
+      </c>
+      <c r="L46" s="13">
+        <v>1</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C47" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H47" s="11">
+        <v>45456</v>
+      </c>
+      <c r="I47" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J47" s="12">
+        <v>45453</v>
+      </c>
+      <c r="K47" s="12">
+        <v>45464</v>
+      </c>
+      <c r="L47" s="13">
+        <v>1</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C48" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H48" s="11">
+        <v>45453</v>
+      </c>
+      <c r="I48" s="11">
+        <v>45464</v>
+      </c>
+      <c r="J48" s="12">
+        <v>45453</v>
+      </c>
+      <c r="K48" s="12">
+        <v>45469</v>
+      </c>
+      <c r="L48" s="13">
+        <v>1</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C49" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C50" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C51" s="1">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C52" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C53" s="1">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:N29" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
+  <autoFilter ref="C2:N39" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M40" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M52" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
       <formula1>$A$2:$A$7</formula1>
     </dataValidation>
   </dataValidations>
